--- a/nuon/instagram_posts_a_market_sora.xlsx
+++ b/nuon/instagram_posts_a_market_sora.xlsx
@@ -2539,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="E31">
         <v>13</v>
@@ -2586,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -2633,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="E34">
         <v>17</v>
@@ -2727,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -2821,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>385</v>
       </c>
       <c r="E37">
         <v>51</v>
@@ -2915,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="E39">
         <v>26</v>
@@ -3059,7 +3059,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -3391,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>357</v>
       </c>
       <c r="E49">
         <v>27</v>
